--- a/Fivetofive Hotel/BISANGWA FIVE.xlsx
+++ b/Fivetofive Hotel/BISANGWA FIVE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Fivetofive Hotel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{126C153B-6B57-48EF-B488-504006B5A52F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEF9718D-0A8C-4682-914B-B36B059FAB39}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{0981967E-F903-48EC-947C-D567D3498052}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="68">
   <si>
     <r>
       <t>N</t>
@@ -185,9 +185,6 @@
     <t>SDC010014500/3362</t>
   </si>
   <si>
-    <t>NTAGO YISHYUYE</t>
-  </si>
-  <si>
     <t>SDC010014500/3463</t>
   </si>
   <si>
@@ -201,6 +198,54 @@
   </si>
   <si>
     <t>SDC010014500/3775</t>
+  </si>
+  <si>
+    <t>SDC010014500/3829</t>
+  </si>
+  <si>
+    <t>SDC010014500/3924</t>
+  </si>
+  <si>
+    <t>SDC010014500/3986</t>
+  </si>
+  <si>
+    <t>SDC010014500/4046</t>
+  </si>
+  <si>
+    <t>BANK</t>
+  </si>
+  <si>
+    <t>BK</t>
+  </si>
+  <si>
+    <t>EQUITY</t>
+  </si>
+  <si>
+    <t>SDC020024500/4110</t>
+  </si>
+  <si>
+    <t>SDC010014500/4191</t>
+  </si>
+  <si>
+    <t>SDC010014500/4257</t>
+  </si>
+  <si>
+    <t>SDC010014500/4329</t>
+  </si>
+  <si>
+    <t>SDC010014500/4407</t>
+  </si>
+  <si>
+    <t>SDC010014500/4501</t>
+  </si>
+  <si>
+    <t>SDC010014500/4531</t>
+  </si>
+  <si>
+    <t>SDC010014500/4772</t>
+  </si>
+  <si>
+    <t>SDC010014500/4848</t>
   </si>
 </sst>
 </file>
@@ -255,7 +300,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="35">
+  <borders count="39">
     <border>
       <left/>
       <right/>
@@ -361,19 +406,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -604,42 +636,54 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="medium">
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <left/>
+      <right/>
       <top style="medium">
         <color indexed="64"/>
       </top>
@@ -647,12 +691,45 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -660,6 +737,37 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -667,44 +775,7 @@
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -713,7 +784,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="123">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -736,16 +807,16 @@
     <xf numFmtId="3" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
@@ -754,55 +825,247 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="3" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="3" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="3" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="3" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -826,64 +1089,10 @@
     <xf numFmtId="3" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -895,121 +1104,16 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1326,55 +1430,60 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52642689-4AA9-487E-9C01-EA6A0955F580}">
-  <dimension ref="A1:G45"/>
+  <dimension ref="A1:H58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="E43" sqref="E43:E44"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="F46" sqref="F46:F52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="64"/>
-    <col min="2" max="2" width="19.7109375" style="64" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.5703125" style="64" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" style="98" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="99"/>
-    <col min="6" max="6" width="10.7109375" style="99" customWidth="1"/>
-    <col min="7" max="7" width="20" style="98" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="64"/>
+    <col min="1" max="1" width="9.140625" style="20"/>
+    <col min="2" max="2" width="19.7109375" style="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" style="20" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" style="69" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="70"/>
+    <col min="6" max="6" width="10.7109375" style="70" customWidth="1"/>
+    <col min="7" max="7" width="20" style="69" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="75"/>
+    <col min="9" max="16384" width="9.140625" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="107" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="109" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="33" t="s">
+      <c r="C1" s="109" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="34" t="s">
+      <c r="D1" s="110" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="36" t="s">
+      <c r="E1" s="112" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="21"/>
-      <c r="G1" s="35" t="s">
+      <c r="F1" s="71"/>
+      <c r="G1" s="114" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="32"/>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="37"/>
+      <c r="H1" s="90" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="108"/>
+      <c r="B2" s="107"/>
+      <c r="C2" s="107"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="113"/>
       <c r="F2" s="2"/>
-      <c r="G2" s="41"/>
-    </row>
-    <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G2" s="115"/>
+      <c r="H2" s="91"/>
+    </row>
+    <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -1394,846 +1503,1171 @@
         <f>E3</f>
         <v>2558000</v>
       </c>
-      <c r="G3" s="8">
+      <c r="G3" s="73">
         <v>44565</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="9">
+      <c r="H3" s="74" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
         <v>2</v>
       </c>
-      <c r="B4" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="65" t="s">
+      <c r="B4" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="66">
+      <c r="D4" s="22">
         <v>44564</v>
       </c>
-      <c r="E4" s="67">
+      <c r="E4" s="23">
         <v>444500</v>
       </c>
-      <c r="F4" s="44">
+      <c r="F4" s="99">
         <f>E4+E5+E6+E7+E8+E9+E10</f>
         <v>2837300</v>
       </c>
-      <c r="G4" s="28">
+      <c r="G4" s="94">
         <v>44587</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="11">
+      <c r="H4" s="87" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="10">
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="20">
+      <c r="D5" s="25">
         <v>44567</v>
       </c>
-      <c r="E5" s="68">
+      <c r="E5" s="26">
         <v>345300</v>
       </c>
-      <c r="F5" s="45"/>
-      <c r="G5" s="29"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="12">
+      <c r="F5" s="100"/>
+      <c r="G5" s="95"/>
+      <c r="H5" s="88"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="11">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="20">
+      <c r="D6" s="25">
         <v>44571</v>
       </c>
-      <c r="E6" s="68">
+      <c r="E6" s="26">
         <v>489200</v>
       </c>
-      <c r="F6" s="45"/>
-      <c r="G6" s="29"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="11">
+      <c r="F6" s="100"/>
+      <c r="G6" s="95"/>
+      <c r="H6" s="88"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="10">
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="20">
+      <c r="D7" s="25">
         <v>44574</v>
       </c>
-      <c r="E7" s="68">
+      <c r="E7" s="26">
         <v>389700</v>
       </c>
-      <c r="F7" s="45"/>
-      <c r="G7" s="29"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="12">
+      <c r="F7" s="100"/>
+      <c r="G7" s="95"/>
+      <c r="H7" s="88"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="11">
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="20">
+      <c r="D8" s="25">
         <v>44578</v>
       </c>
-      <c r="E8" s="68">
+      <c r="E8" s="26">
         <v>438700</v>
       </c>
-      <c r="F8" s="45"/>
-      <c r="G8" s="29"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="11">
+      <c r="F8" s="100"/>
+      <c r="G8" s="95"/>
+      <c r="H8" s="88"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="10">
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="C9" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="20">
+      <c r="D9" s="25">
         <v>44581</v>
       </c>
-      <c r="E9" s="68">
+      <c r="E9" s="26">
         <v>272700</v>
       </c>
-      <c r="F9" s="45"/>
-      <c r="G9" s="29"/>
-    </row>
-    <row r="10" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="13">
-        <v>8</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="69" t="s">
+      <c r="F9" s="100"/>
+      <c r="G9" s="95"/>
+      <c r="H9" s="88"/>
+    </row>
+    <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="12">
+        <v>8</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="70">
+      <c r="D10" s="28">
         <v>44585</v>
       </c>
-      <c r="E10" s="71">
+      <c r="E10" s="29">
         <v>457200</v>
       </c>
-      <c r="F10" s="46"/>
-      <c r="G10" s="30"/>
-    </row>
-    <row r="11" spans="1:7" s="75" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="15">
+      <c r="F10" s="101"/>
+      <c r="G10" s="96"/>
+      <c r="H10" s="89"/>
+    </row>
+    <row r="11" spans="1:8" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="14">
         <v>9</v>
       </c>
-      <c r="B11" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="72" t="s">
+      <c r="B11" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="73">
+      <c r="D11" s="31">
         <v>44594</v>
       </c>
-      <c r="E11" s="74">
+      <c r="E11" s="32">
         <v>10000</v>
       </c>
-      <c r="F11" s="38">
+      <c r="F11" s="102">
         <v>30000</v>
       </c>
-      <c r="G11" s="47" t="s">
+      <c r="G11" s="104" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" s="75" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="13">
+      <c r="H11" s="92"/>
+    </row>
+    <row r="12" spans="1:8" s="33" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="12">
         <v>10</v>
       </c>
-      <c r="B12" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="17" t="s">
+      <c r="B12" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="76">
+      <c r="D12" s="35">
         <v>44594</v>
       </c>
-      <c r="E12" s="77">
+      <c r="E12" s="36">
         <v>20000</v>
       </c>
-      <c r="F12" s="40"/>
-      <c r="G12" s="48"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="15">
+      <c r="F12" s="103"/>
+      <c r="G12" s="105"/>
+      <c r="H12" s="93"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="14">
         <v>11</v>
       </c>
-      <c r="B13" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="65" t="s">
+      <c r="B13" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="66">
+      <c r="D13" s="22">
         <v>44588</v>
       </c>
-      <c r="E13" s="67">
+      <c r="E13" s="23">
         <v>513700</v>
       </c>
-      <c r="F13" s="38">
+      <c r="F13" s="102">
         <f>E13+E14+E15+E16+E17+E18</f>
         <v>2725700</v>
       </c>
-      <c r="G13" s="28">
+      <c r="G13" s="94">
         <v>44608</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="12">
+      <c r="H13" s="87" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="11">
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="19" t="s">
+      <c r="C14" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="20">
+      <c r="D14" s="25">
         <v>44592</v>
       </c>
-      <c r="E14" s="68">
+      <c r="E14" s="26">
         <v>433400</v>
       </c>
-      <c r="F14" s="39"/>
-      <c r="G14" s="29"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="11">
+      <c r="F14" s="106"/>
+      <c r="G14" s="95"/>
+      <c r="H14" s="88"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="10">
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="19" t="s">
+      <c r="C15" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D15" s="78">
+      <c r="D15" s="37">
         <v>44595</v>
       </c>
-      <c r="E15" s="79">
+      <c r="E15" s="38">
         <v>635100</v>
       </c>
-      <c r="F15" s="39"/>
-      <c r="G15" s="29"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="12">
+      <c r="F15" s="106"/>
+      <c r="G15" s="95"/>
+      <c r="H15" s="88"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="11">
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="78">
+      <c r="D16" s="37">
         <v>44599</v>
       </c>
-      <c r="E16" s="79">
+      <c r="E16" s="38">
         <v>419000</v>
       </c>
-      <c r="F16" s="39"/>
-      <c r="G16" s="29"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="11">
+      <c r="F16" s="106"/>
+      <c r="G16" s="95"/>
+      <c r="H16" s="88"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="10">
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="D17" s="78">
+      <c r="D17" s="37">
         <v>44603</v>
       </c>
-      <c r="E17" s="79">
+      <c r="E17" s="38">
         <v>234600</v>
       </c>
-      <c r="F17" s="39"/>
-      <c r="G17" s="29"/>
-    </row>
-    <row r="18" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="13">
+      <c r="F17" s="106"/>
+      <c r="G17" s="95"/>
+      <c r="H17" s="88"/>
+    </row>
+    <row r="18" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="12">
         <v>16</v>
       </c>
-      <c r="B18" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" s="14" t="s">
+      <c r="B18" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="80">
+      <c r="D18" s="41">
         <v>44606</v>
       </c>
-      <c r="E18" s="81">
+      <c r="E18" s="42">
         <v>489900</v>
       </c>
-      <c r="F18" s="40"/>
-      <c r="G18" s="30"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="15">
+      <c r="F18" s="103"/>
+      <c r="G18" s="96"/>
+      <c r="H18" s="89"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="14">
         <v>17</v>
       </c>
-      <c r="B19" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C19" s="10" t="s">
+      <c r="B19" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="D19" s="82">
+      <c r="D19" s="44">
         <v>44609</v>
       </c>
-      <c r="E19" s="83">
+      <c r="E19" s="45">
         <v>474700</v>
       </c>
-      <c r="F19" s="25">
+      <c r="F19" s="78">
         <f>E25+E24+E23+E22+E21+E20+E19</f>
         <v>3317100</v>
       </c>
-      <c r="G19" s="28">
+      <c r="G19" s="94">
         <v>44630</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="12">
+      <c r="H19" s="87" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="11">
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="D20" s="78">
+      <c r="D20" s="37">
         <v>44613</v>
       </c>
-      <c r="E20" s="79">
+      <c r="E20" s="38">
         <v>453900</v>
       </c>
-      <c r="F20" s="26"/>
-      <c r="G20" s="29"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="11">
+      <c r="F20" s="79"/>
+      <c r="G20" s="95"/>
+      <c r="H20" s="88"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="10">
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="D21" s="78">
+      <c r="D21" s="37">
         <v>44616</v>
       </c>
-      <c r="E21" s="79">
+      <c r="E21" s="38">
         <v>292700</v>
       </c>
-      <c r="F21" s="26"/>
-      <c r="G21" s="29"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="12">
+      <c r="F21" s="79"/>
+      <c r="G21" s="95"/>
+      <c r="H21" s="88"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="11">
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="D22" s="78">
+      <c r="D22" s="37">
         <v>44620</v>
       </c>
-      <c r="E22" s="79">
+      <c r="E22" s="38">
         <v>636400</v>
       </c>
-      <c r="F22" s="26"/>
-      <c r="G22" s="29"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="11">
+      <c r="F22" s="79"/>
+      <c r="G22" s="95"/>
+      <c r="H22" s="88"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="10">
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="D23" s="78">
+      <c r="D23" s="37">
         <v>44622</v>
       </c>
-      <c r="E23" s="79">
+      <c r="E23" s="38">
         <v>153300</v>
       </c>
-      <c r="F23" s="26"/>
-      <c r="G23" s="29"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="12">
+      <c r="F23" s="79"/>
+      <c r="G23" s="95"/>
+      <c r="H23" s="88"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="11">
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="D24" s="78">
+      <c r="D24" s="37">
         <v>44623</v>
       </c>
-      <c r="E24" s="79">
+      <c r="E24" s="38">
         <v>634400</v>
       </c>
-      <c r="F24" s="26"/>
-      <c r="G24" s="29"/>
-    </row>
-    <row r="25" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="18">
+      <c r="F24" s="79"/>
+      <c r="G24" s="95"/>
+      <c r="H24" s="88"/>
+    </row>
+    <row r="25" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="17">
         <v>23</v>
       </c>
-      <c r="B25" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C25" s="14" t="s">
+      <c r="B25" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="D25" s="80">
+      <c r="D25" s="41">
         <v>44627</v>
       </c>
-      <c r="E25" s="71">
+      <c r="E25" s="29">
         <v>671700</v>
       </c>
-      <c r="F25" s="27"/>
-      <c r="G25" s="30"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="9">
+      <c r="F25" s="80"/>
+      <c r="G25" s="96"/>
+      <c r="H25" s="89"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="8">
         <v>24</v>
       </c>
-      <c r="B26" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C26" s="84" t="s">
+      <c r="B26" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="D26" s="85">
+      <c r="D26" s="47">
         <v>44630</v>
       </c>
-      <c r="E26" s="86">
+      <c r="E26" s="48">
         <v>445200</v>
       </c>
-      <c r="F26" s="25">
+      <c r="F26" s="78">
         <f>E31+E30+E29+E28+E27+E26</f>
         <v>3139000</v>
       </c>
-      <c r="G26" s="42">
+      <c r="G26" s="97">
         <v>44652</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="11">
+      <c r="H26" s="87" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="10">
         <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C27" s="61" t="s">
+      <c r="C27" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="D27" s="62">
+      <c r="D27" s="50">
         <v>44634</v>
       </c>
-      <c r="E27" s="63">
+      <c r="E27" s="51">
         <v>574900</v>
       </c>
-      <c r="F27" s="26"/>
-      <c r="G27" s="43"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="12">
+      <c r="F27" s="79"/>
+      <c r="G27" s="98"/>
+      <c r="H27" s="88"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="11">
         <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="D28" s="78">
+      <c r="D28" s="37">
         <v>44637</v>
       </c>
-      <c r="E28" s="79">
+      <c r="E28" s="38">
         <v>502300</v>
       </c>
-      <c r="F28" s="26"/>
-      <c r="G28" s="43"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="11">
+      <c r="F28" s="79"/>
+      <c r="G28" s="98"/>
+      <c r="H28" s="88"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="10">
         <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C29" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="D29" s="78">
+      <c r="D29" s="37">
         <v>44641</v>
       </c>
-      <c r="E29" s="79">
+      <c r="E29" s="38">
         <v>605600</v>
       </c>
-      <c r="F29" s="26"/>
-      <c r="G29" s="43"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="12">
+      <c r="F29" s="79"/>
+      <c r="G29" s="98"/>
+      <c r="H29" s="88"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="11">
         <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="D30" s="78">
+      <c r="D30" s="37">
         <v>44644</v>
       </c>
-      <c r="E30" s="79">
+      <c r="E30" s="38">
         <v>264000</v>
       </c>
-      <c r="F30" s="26"/>
-      <c r="G30" s="43"/>
-    </row>
-    <row r="31" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="22">
+      <c r="F30" s="79"/>
+      <c r="G30" s="98"/>
+      <c r="H30" s="88"/>
+    </row>
+    <row r="31" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="18">
         <v>29</v>
       </c>
-      <c r="B31" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="C31" s="23" t="s">
+      <c r="B31" s="72" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="D31" s="87">
+      <c r="D31" s="53">
         <v>44648</v>
       </c>
-      <c r="E31" s="88">
+      <c r="E31" s="54">
         <v>747000</v>
       </c>
-      <c r="F31" s="26"/>
-      <c r="G31" s="43"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="9">
+      <c r="F31" s="79"/>
+      <c r="G31" s="98"/>
+      <c r="H31" s="89"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="8">
         <v>30</v>
       </c>
-      <c r="B32" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C32" s="84" t="s">
+      <c r="B32" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="D32" s="85">
+      <c r="D32" s="47">
         <v>44651</v>
       </c>
-      <c r="E32" s="86">
+      <c r="E32" s="48">
         <v>577500</v>
       </c>
-      <c r="F32" s="25">
+      <c r="F32" s="78">
         <f>E39+E38+E37+E36+E35+E34+E33+E32</f>
         <v>3369400</v>
       </c>
-      <c r="G32" s="49">
+      <c r="G32" s="116">
         <v>44677</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="11">
+      <c r="H32" s="87" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="10">
         <v>31</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C33" s="61" t="s">
+      <c r="C33" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="D33" s="62">
+      <c r="D33" s="50">
         <v>44651</v>
       </c>
-      <c r="E33" s="63">
+      <c r="E33" s="51">
         <v>4800</v>
       </c>
-      <c r="F33" s="26"/>
-      <c r="G33" s="50"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="12">
+      <c r="F33" s="79"/>
+      <c r="G33" s="117"/>
+      <c r="H33" s="88"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="11">
         <v>32</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C34" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="D34" s="78">
+      <c r="D34" s="37">
         <v>44655</v>
       </c>
-      <c r="E34" s="79">
+      <c r="E34" s="38">
         <v>534300</v>
       </c>
-      <c r="F34" s="26"/>
-      <c r="G34" s="50"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="11">
+      <c r="F34" s="79"/>
+      <c r="G34" s="117"/>
+      <c r="H34" s="88"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="10">
         <v>33</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C35" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="D35" s="78">
+      <c r="D35" s="37">
         <v>44659</v>
       </c>
-      <c r="E35" s="79">
+      <c r="E35" s="38">
         <v>462400</v>
       </c>
-      <c r="F35" s="26"/>
-      <c r="G35" s="50"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="24">
+      <c r="F35" s="79"/>
+      <c r="G35" s="117"/>
+      <c r="H35" s="88"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="19">
         <v>34</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C36" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="D36" s="78">
+      <c r="D36" s="37">
         <v>44662</v>
       </c>
-      <c r="E36" s="79">
+      <c r="E36" s="38">
         <v>306600</v>
       </c>
-      <c r="F36" s="26"/>
-      <c r="G36" s="50"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="11">
+      <c r="F36" s="79"/>
+      <c r="G36" s="117"/>
+      <c r="H36" s="88"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="10">
         <v>35</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C37" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="D37" s="78">
+      <c r="D37" s="37">
         <v>44665</v>
       </c>
-      <c r="E37" s="79">
+      <c r="E37" s="38">
         <v>359000</v>
       </c>
-      <c r="F37" s="26"/>
-      <c r="G37" s="50"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="12">
+      <c r="F37" s="79"/>
+      <c r="G37" s="117"/>
+      <c r="H37" s="88"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="11">
         <v>36</v>
       </c>
-      <c r="B38" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="C38" s="89" t="s">
+      <c r="B38" s="72" t="s">
+        <v>8</v>
+      </c>
+      <c r="C38" s="55" t="s">
         <v>44</v>
       </c>
-      <c r="D38" s="90">
+      <c r="D38" s="56">
         <v>44669</v>
       </c>
-      <c r="E38" s="91">
+      <c r="E38" s="57">
         <v>467400</v>
       </c>
-      <c r="F38" s="26"/>
-      <c r="G38" s="50"/>
-    </row>
-    <row r="39" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="22">
+      <c r="F38" s="79"/>
+      <c r="G38" s="117"/>
+      <c r="H38" s="88"/>
+    </row>
+    <row r="39" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="17">
         <v>37</v>
       </c>
-      <c r="B39" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="C39" s="89" t="s">
+      <c r="B39" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C39" s="58" t="s">
         <v>45</v>
       </c>
-      <c r="D39" s="90">
+      <c r="D39" s="59">
         <v>44672</v>
       </c>
-      <c r="E39" s="91">
+      <c r="E39" s="60">
         <v>657400</v>
       </c>
-      <c r="F39" s="26"/>
-      <c r="G39" s="51"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="9">
+      <c r="F39" s="79"/>
+      <c r="G39" s="118"/>
+      <c r="H39" s="89"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="8">
         <v>38</v>
       </c>
-      <c r="B40" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C40" s="92" t="s">
+      <c r="B40" s="61" t="s">
+        <v>8</v>
+      </c>
+      <c r="C40" s="62" t="s">
         <v>46</v>
       </c>
-      <c r="D40" s="93">
+      <c r="D40" s="63">
         <v>44676</v>
       </c>
-      <c r="E40" s="94">
+      <c r="E40" s="64">
         <v>572400</v>
       </c>
-      <c r="F40" s="55">
+      <c r="F40" s="78">
         <f>E45+E44+E43+E42+E41+E40</f>
         <v>3335600</v>
       </c>
-      <c r="G40" s="58" t="s">
+      <c r="G40" s="119">
+        <v>44694</v>
+      </c>
+      <c r="H40" s="87" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="10">
+        <v>39</v>
+      </c>
+      <c r="B41" s="72" t="s">
+        <v>8</v>
+      </c>
+      <c r="C41" s="65" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="52">
-        <v>39</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C41" s="95" t="s">
+      <c r="D41" s="66">
+        <v>44679</v>
+      </c>
+      <c r="E41" s="67">
+        <v>433900</v>
+      </c>
+      <c r="F41" s="79"/>
+      <c r="G41" s="120"/>
+      <c r="H41" s="88"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="11">
+        <v>40</v>
+      </c>
+      <c r="B42" s="72" t="s">
+        <v>8</v>
+      </c>
+      <c r="C42" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="D41" s="96">
-        <v>44679</v>
-      </c>
-      <c r="E41" s="97">
-        <v>433900</v>
-      </c>
-      <c r="F41" s="56"/>
-      <c r="G41" s="59"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="12">
-        <v>40</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C42" s="1" t="s">
+      <c r="D42" s="37">
+        <v>44683</v>
+      </c>
+      <c r="E42" s="38">
+        <v>645500</v>
+      </c>
+      <c r="F42" s="79"/>
+      <c r="G42" s="120"/>
+      <c r="H42" s="88"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="18">
+        <v>41</v>
+      </c>
+      <c r="B43" s="72" t="s">
+        <v>8</v>
+      </c>
+      <c r="C43" s="52" t="s">
         <v>49</v>
       </c>
-      <c r="D42" s="78">
-        <v>44683</v>
-      </c>
-      <c r="E42" s="53">
-        <v>645500</v>
-      </c>
-      <c r="F42" s="56"/>
-      <c r="G42" s="59"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="52">
-        <v>41</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C43" s="1" t="s">
+      <c r="D43" s="53">
+        <v>44686</v>
+      </c>
+      <c r="E43" s="54">
+        <v>597000</v>
+      </c>
+      <c r="F43" s="79"/>
+      <c r="G43" s="120"/>
+      <c r="H43" s="88"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="11">
+        <v>42</v>
+      </c>
+      <c r="B44" s="72" t="s">
+        <v>8</v>
+      </c>
+      <c r="C44" s="65" t="s">
         <v>50</v>
       </c>
-      <c r="D43" s="78">
-        <v>44686</v>
-      </c>
-      <c r="E43" s="53">
-        <v>597000</v>
-      </c>
-      <c r="F43" s="56"/>
-      <c r="G43" s="59"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="12">
-        <v>42</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C44" s="1" t="s">
+      <c r="D44" s="66">
+        <v>44690</v>
+      </c>
+      <c r="E44" s="67">
+        <v>634900</v>
+      </c>
+      <c r="F44" s="79"/>
+      <c r="G44" s="120"/>
+      <c r="H44" s="88"/>
+    </row>
+    <row r="45" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="17">
+        <v>43</v>
+      </c>
+      <c r="B45" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C45" s="58" t="s">
         <v>51</v>
       </c>
-      <c r="D44" s="78">
-        <v>44690</v>
-      </c>
-      <c r="E44" s="53">
-        <v>634900</v>
-      </c>
-      <c r="F44" s="56"/>
-      <c r="G44" s="59"/>
-    </row>
-    <row r="45" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="13">
-        <v>43</v>
-      </c>
-      <c r="B45" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C45" s="14" t="s">
+      <c r="D45" s="59">
+        <v>44693</v>
+      </c>
+      <c r="E45" s="60">
+        <v>451900</v>
+      </c>
+      <c r="F45" s="80"/>
+      <c r="G45" s="121"/>
+      <c r="H45" s="89"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="8">
+        <v>44</v>
+      </c>
+      <c r="B46" s="61" t="s">
+        <v>8</v>
+      </c>
+      <c r="C46" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="D45" s="80">
-        <v>44693</v>
-      </c>
-      <c r="E45" s="54">
-        <v>451900</v>
-      </c>
-      <c r="F45" s="57"/>
-      <c r="G45" s="60"/>
+      <c r="D46" s="44">
+        <v>44697</v>
+      </c>
+      <c r="E46" s="45">
+        <v>652800</v>
+      </c>
+      <c r="F46" s="78">
+        <f>E46+E47+E48+E49+E50+E51+E52</f>
+        <v>3918500</v>
+      </c>
+      <c r="G46" s="81">
+        <v>44719</v>
+      </c>
+      <c r="H46" s="84" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="18">
+        <v>45</v>
+      </c>
+      <c r="B47" s="72" t="s">
+        <v>8</v>
+      </c>
+      <c r="C47" s="65" t="s">
+        <v>53</v>
+      </c>
+      <c r="D47" s="66">
+        <v>44701</v>
+      </c>
+      <c r="E47" s="67">
+        <v>470500</v>
+      </c>
+      <c r="F47" s="79"/>
+      <c r="G47" s="82"/>
+      <c r="H47" s="85"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="68">
+        <v>46</v>
+      </c>
+      <c r="B48" s="72" t="s">
+        <v>8</v>
+      </c>
+      <c r="C48" s="55" t="s">
+        <v>54</v>
+      </c>
+      <c r="D48" s="56">
+        <v>44704</v>
+      </c>
+      <c r="E48" s="57">
+        <v>524300</v>
+      </c>
+      <c r="F48" s="79"/>
+      <c r="G48" s="82"/>
+      <c r="H48" s="85"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="11">
+        <v>47</v>
+      </c>
+      <c r="B49" s="72" t="s">
+        <v>8</v>
+      </c>
+      <c r="C49" s="65" t="s">
+        <v>55</v>
+      </c>
+      <c r="D49" s="66">
+        <v>44707</v>
+      </c>
+      <c r="E49" s="67">
+        <v>441000</v>
+      </c>
+      <c r="F49" s="79"/>
+      <c r="G49" s="82"/>
+      <c r="H49" s="85"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="18">
+        <v>48</v>
+      </c>
+      <c r="B50" s="72" t="s">
+        <v>8</v>
+      </c>
+      <c r="C50" s="39" t="s">
+        <v>59</v>
+      </c>
+      <c r="D50" s="37">
+        <v>44711</v>
+      </c>
+      <c r="E50" s="38">
+        <v>686100</v>
+      </c>
+      <c r="F50" s="79"/>
+      <c r="G50" s="82"/>
+      <c r="H50" s="85"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="68">
+        <v>49</v>
+      </c>
+      <c r="B51" s="72" t="s">
+        <v>8</v>
+      </c>
+      <c r="C51" s="65" t="s">
+        <v>60</v>
+      </c>
+      <c r="D51" s="66">
+        <v>44714</v>
+      </c>
+      <c r="E51" s="67">
+        <v>492600</v>
+      </c>
+      <c r="F51" s="79"/>
+      <c r="G51" s="82"/>
+      <c r="H51" s="85"/>
+    </row>
+    <row r="52" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="12">
+        <v>50</v>
+      </c>
+      <c r="B52" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C52" s="58" t="s">
+        <v>61</v>
+      </c>
+      <c r="D52" s="59">
+        <v>44718</v>
+      </c>
+      <c r="E52" s="60">
+        <v>651200</v>
+      </c>
+      <c r="F52" s="80"/>
+      <c r="G52" s="83"/>
+      <c r="H52" s="86"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="14">
+        <v>51</v>
+      </c>
+      <c r="B53" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C53" s="62" t="s">
+        <v>62</v>
+      </c>
+      <c r="D53" s="63">
+        <v>44721</v>
+      </c>
+      <c r="E53" s="64">
+        <v>726600</v>
+      </c>
+      <c r="F53" s="78">
+        <v>4519300</v>
+      </c>
+      <c r="G53" s="81"/>
+      <c r="H53" s="84"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="76">
+        <v>52</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C54" s="65" t="s">
+        <v>63</v>
+      </c>
+      <c r="D54" s="66">
+        <v>44725</v>
+      </c>
+      <c r="E54" s="67">
+        <v>716000</v>
+      </c>
+      <c r="F54" s="79"/>
+      <c r="G54" s="82"/>
+      <c r="H54" s="85"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" s="76">
+        <v>53</v>
+      </c>
+      <c r="B55" s="72" t="s">
+        <v>8</v>
+      </c>
+      <c r="C55" s="65" t="s">
+        <v>64</v>
+      </c>
+      <c r="D55" s="66">
+        <v>44728</v>
+      </c>
+      <c r="E55" s="67">
+        <v>1032900</v>
+      </c>
+      <c r="F55" s="79"/>
+      <c r="G55" s="82"/>
+      <c r="H55" s="85"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="76">
+        <v>54</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C56" s="65" t="s">
+        <v>65</v>
+      </c>
+      <c r="D56" s="66">
+        <v>44729</v>
+      </c>
+      <c r="E56" s="67">
+        <v>946100</v>
+      </c>
+      <c r="F56" s="79"/>
+      <c r="G56" s="82"/>
+      <c r="H56" s="85"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" s="10">
+        <v>55</v>
+      </c>
+      <c r="B57" s="122" t="s">
+        <v>8</v>
+      </c>
+      <c r="C57" s="65" t="s">
+        <v>66</v>
+      </c>
+      <c r="D57" s="66">
+        <v>44740</v>
+      </c>
+      <c r="E57" s="67">
+        <v>545600</v>
+      </c>
+      <c r="F57" s="79"/>
+      <c r="G57" s="82"/>
+      <c r="H57" s="85"/>
+    </row>
+    <row r="58" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="77">
+        <v>56</v>
+      </c>
+      <c r="B58" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C58" s="40" t="s">
+        <v>67</v>
+      </c>
+      <c r="D58" s="41">
+        <v>44743</v>
+      </c>
+      <c r="E58" s="42">
+        <v>552100</v>
+      </c>
+      <c r="F58" s="80"/>
+      <c r="G58" s="83"/>
+      <c r="H58" s="86"/>
     </row>
   </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="G11:G12"/>
+  <mergeCells count="34">
+    <mergeCell ref="G1:G2"/>
     <mergeCell ref="F32:F39"/>
     <mergeCell ref="G32:G39"/>
     <mergeCell ref="F40:F45"/>
@@ -2243,15 +2677,30 @@
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F13:F18"/>
-    <mergeCell ref="G13:G18"/>
-    <mergeCell ref="G1:G2"/>
     <mergeCell ref="F19:F25"/>
     <mergeCell ref="G19:G25"/>
     <mergeCell ref="F26:F31"/>
     <mergeCell ref="G26:G31"/>
     <mergeCell ref="F4:F10"/>
     <mergeCell ref="G4:G10"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="F13:F18"/>
+    <mergeCell ref="G13:G18"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="H4:H10"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="H13:H18"/>
+    <mergeCell ref="H19:H25"/>
+    <mergeCell ref="H26:H31"/>
+    <mergeCell ref="H32:H39"/>
+    <mergeCell ref="H40:H45"/>
+    <mergeCell ref="F46:F52"/>
+    <mergeCell ref="G46:G52"/>
+    <mergeCell ref="H46:H52"/>
+    <mergeCell ref="F53:F58"/>
+    <mergeCell ref="G53:G58"/>
+    <mergeCell ref="H53:H58"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Fivetofive Hotel/BISANGWA FIVE.xlsx
+++ b/Fivetofive Hotel/BISANGWA FIVE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Fivetofive Hotel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEF9718D-0A8C-4682-914B-B36B059FAB39}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AD5007D-5449-43D5-B17B-63C6AC06C584}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{0981967E-F903-48EC-947C-D567D3498052}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="76">
   <si>
     <r>
       <t>N</t>
@@ -246,6 +246,30 @@
   </si>
   <si>
     <t>SDC010014500/4848</t>
+  </si>
+  <si>
+    <t>SDC010014500/4888</t>
+  </si>
+  <si>
+    <t>SDC010014500/4973</t>
+  </si>
+  <si>
+    <t>SDC010014500/5045</t>
+  </si>
+  <si>
+    <t>SDC010014500/5140</t>
+  </si>
+  <si>
+    <t>SDC010014500/5234</t>
+  </si>
+  <si>
+    <t>SDC010014500/5314</t>
+  </si>
+  <si>
+    <t>SDC010014500/5400</t>
+  </si>
+  <si>
+    <t>SDC010014500/5462</t>
   </si>
 </sst>
 </file>
@@ -784,7 +808,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="123">
+  <cellXfs count="124">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -960,25 +984,47 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="3" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -990,24 +1036,6 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1029,6 +1057,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1066,54 +1139,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1430,10 +1455,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52642689-4AA9-487E-9C01-EA6A0955F580}">
-  <dimension ref="A1:H58"/>
+  <dimension ref="A1:H66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="F46" sqref="F46:F52"/>
+    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
+      <selection activeCell="C72" sqref="C72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1445,43 +1470,43 @@
     <col min="5" max="5" width="9.140625" style="70"/>
     <col min="6" max="6" width="10.7109375" style="70" customWidth="1"/>
     <col min="7" max="7" width="20" style="69" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="75"/>
+    <col min="8" max="8" width="9.140625" style="73"/>
     <col min="9" max="16384" width="9.140625" style="20"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="107" t="s">
+      <c r="A1" s="96" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="109" t="s">
+      <c r="B1" s="98" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="109" t="s">
+      <c r="C1" s="98" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="110" t="s">
+      <c r="D1" s="99" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="112" t="s">
+      <c r="E1" s="101" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="71"/>
-      <c r="G1" s="114" t="s">
+      <c r="F1" s="77"/>
+      <c r="G1" s="103" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="90" t="s">
+      <c r="H1" s="92" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="108"/>
-      <c r="B2" s="107"/>
-      <c r="C2" s="107"/>
-      <c r="D2" s="111"/>
-      <c r="E2" s="113"/>
+      <c r="A2" s="97"/>
+      <c r="B2" s="96"/>
+      <c r="C2" s="96"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="102"/>
       <c r="F2" s="2"/>
-      <c r="G2" s="115"/>
-      <c r="H2" s="91"/>
+      <c r="G2" s="104"/>
+      <c r="H2" s="93"/>
     </row>
     <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
@@ -1503,10 +1528,10 @@
         <f>E3</f>
         <v>2558000</v>
       </c>
-      <c r="G3" s="73">
+      <c r="G3" s="71">
         <v>44565</v>
       </c>
-      <c r="H3" s="74" t="s">
+      <c r="H3" s="72" t="s">
         <v>57</v>
       </c>
     </row>
@@ -1526,14 +1551,14 @@
       <c r="E4" s="23">
         <v>444500</v>
       </c>
-      <c r="F4" s="99">
+      <c r="F4" s="116">
         <f>E4+E5+E6+E7+E8+E9+E10</f>
         <v>2837300</v>
       </c>
-      <c r="G4" s="94">
+      <c r="G4" s="111">
         <v>44587</v>
       </c>
-      <c r="H4" s="87" t="s">
+      <c r="H4" s="89" t="s">
         <v>57</v>
       </c>
     </row>
@@ -1553,9 +1578,9 @@
       <c r="E5" s="26">
         <v>345300</v>
       </c>
-      <c r="F5" s="100"/>
-      <c r="G5" s="95"/>
-      <c r="H5" s="88"/>
+      <c r="F5" s="117"/>
+      <c r="G5" s="112"/>
+      <c r="H5" s="90"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="11">
@@ -1573,9 +1598,9 @@
       <c r="E6" s="26">
         <v>489200</v>
       </c>
-      <c r="F6" s="100"/>
-      <c r="G6" s="95"/>
-      <c r="H6" s="88"/>
+      <c r="F6" s="117"/>
+      <c r="G6" s="112"/>
+      <c r="H6" s="90"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="10">
@@ -1593,9 +1618,9 @@
       <c r="E7" s="26">
         <v>389700</v>
       </c>
-      <c r="F7" s="100"/>
-      <c r="G7" s="95"/>
-      <c r="H7" s="88"/>
+      <c r="F7" s="117"/>
+      <c r="G7" s="112"/>
+      <c r="H7" s="90"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="11">
@@ -1613,9 +1638,9 @@
       <c r="E8" s="26">
         <v>438700</v>
       </c>
-      <c r="F8" s="100"/>
-      <c r="G8" s="95"/>
-      <c r="H8" s="88"/>
+      <c r="F8" s="117"/>
+      <c r="G8" s="112"/>
+      <c r="H8" s="90"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="10">
@@ -1633,9 +1658,9 @@
       <c r="E9" s="26">
         <v>272700</v>
       </c>
-      <c r="F9" s="100"/>
-      <c r="G9" s="95"/>
-      <c r="H9" s="88"/>
+      <c r="F9" s="117"/>
+      <c r="G9" s="112"/>
+      <c r="H9" s="90"/>
     </row>
     <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="12">
@@ -1653,9 +1678,9 @@
       <c r="E10" s="29">
         <v>457200</v>
       </c>
-      <c r="F10" s="101"/>
-      <c r="G10" s="96"/>
-      <c r="H10" s="89"/>
+      <c r="F10" s="118"/>
+      <c r="G10" s="113"/>
+      <c r="H10" s="91"/>
     </row>
     <row r="11" spans="1:8" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="14">
@@ -1673,13 +1698,13 @@
       <c r="E11" s="32">
         <v>10000</v>
       </c>
-      <c r="F11" s="102">
+      <c r="F11" s="119">
         <v>30000</v>
       </c>
-      <c r="G11" s="104" t="s">
+      <c r="G11" s="121" t="s">
         <v>17</v>
       </c>
-      <c r="H11" s="92"/>
+      <c r="H11" s="94"/>
     </row>
     <row r="12" spans="1:8" s="33" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="12">
@@ -1697,9 +1722,9 @@
       <c r="E12" s="36">
         <v>20000</v>
       </c>
-      <c r="F12" s="103"/>
-      <c r="G12" s="105"/>
-      <c r="H12" s="93"/>
+      <c r="F12" s="120"/>
+      <c r="G12" s="122"/>
+      <c r="H12" s="95"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="14">
@@ -1717,14 +1742,14 @@
       <c r="E13" s="23">
         <v>513700</v>
       </c>
-      <c r="F13" s="102">
+      <c r="F13" s="119">
         <f>E13+E14+E15+E16+E17+E18</f>
         <v>2725700</v>
       </c>
-      <c r="G13" s="94">
+      <c r="G13" s="111">
         <v>44608</v>
       </c>
-      <c r="H13" s="87" t="s">
+      <c r="H13" s="89" t="s">
         <v>57</v>
       </c>
     </row>
@@ -1744,9 +1769,9 @@
       <c r="E14" s="26">
         <v>433400</v>
       </c>
-      <c r="F14" s="106"/>
-      <c r="G14" s="95"/>
-      <c r="H14" s="88"/>
+      <c r="F14" s="123"/>
+      <c r="G14" s="112"/>
+      <c r="H14" s="90"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="10">
@@ -1764,9 +1789,9 @@
       <c r="E15" s="38">
         <v>635100</v>
       </c>
-      <c r="F15" s="106"/>
-      <c r="G15" s="95"/>
-      <c r="H15" s="88"/>
+      <c r="F15" s="123"/>
+      <c r="G15" s="112"/>
+      <c r="H15" s="90"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="11">
@@ -1784,9 +1809,9 @@
       <c r="E16" s="38">
         <v>419000</v>
       </c>
-      <c r="F16" s="106"/>
-      <c r="G16" s="95"/>
-      <c r="H16" s="88"/>
+      <c r="F16" s="123"/>
+      <c r="G16" s="112"/>
+      <c r="H16" s="90"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="10">
@@ -1804,9 +1829,9 @@
       <c r="E17" s="38">
         <v>234600</v>
       </c>
-      <c r="F17" s="106"/>
-      <c r="G17" s="95"/>
-      <c r="H17" s="88"/>
+      <c r="F17" s="123"/>
+      <c r="G17" s="112"/>
+      <c r="H17" s="90"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="12">
@@ -1824,9 +1849,9 @@
       <c r="E18" s="42">
         <v>489900</v>
       </c>
-      <c r="F18" s="103"/>
-      <c r="G18" s="96"/>
-      <c r="H18" s="89"/>
+      <c r="F18" s="120"/>
+      <c r="G18" s="113"/>
+      <c r="H18" s="91"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="14">
@@ -1844,14 +1869,14 @@
       <c r="E19" s="45">
         <v>474700</v>
       </c>
-      <c r="F19" s="78">
+      <c r="F19" s="86">
         <f>E25+E24+E23+E22+E21+E20+E19</f>
         <v>3317100</v>
       </c>
-      <c r="G19" s="94">
+      <c r="G19" s="111">
         <v>44630</v>
       </c>
-      <c r="H19" s="87" t="s">
+      <c r="H19" s="89" t="s">
         <v>57</v>
       </c>
     </row>
@@ -1871,9 +1896,9 @@
       <c r="E20" s="38">
         <v>453900</v>
       </c>
-      <c r="F20" s="79"/>
-      <c r="G20" s="95"/>
-      <c r="H20" s="88"/>
+      <c r="F20" s="87"/>
+      <c r="G20" s="112"/>
+      <c r="H20" s="90"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="10">
@@ -1891,9 +1916,9 @@
       <c r="E21" s="38">
         <v>292700</v>
       </c>
-      <c r="F21" s="79"/>
-      <c r="G21" s="95"/>
-      <c r="H21" s="88"/>
+      <c r="F21" s="87"/>
+      <c r="G21" s="112"/>
+      <c r="H21" s="90"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="11">
@@ -1911,9 +1936,9 @@
       <c r="E22" s="38">
         <v>636400</v>
       </c>
-      <c r="F22" s="79"/>
-      <c r="G22" s="95"/>
-      <c r="H22" s="88"/>
+      <c r="F22" s="87"/>
+      <c r="G22" s="112"/>
+      <c r="H22" s="90"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="10">
@@ -1931,9 +1956,9 @@
       <c r="E23" s="38">
         <v>153300</v>
       </c>
-      <c r="F23" s="79"/>
-      <c r="G23" s="95"/>
-      <c r="H23" s="88"/>
+      <c r="F23" s="87"/>
+      <c r="G23" s="112"/>
+      <c r="H23" s="90"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="11">
@@ -1951,9 +1976,9 @@
       <c r="E24" s="38">
         <v>634400</v>
       </c>
-      <c r="F24" s="79"/>
-      <c r="G24" s="95"/>
-      <c r="H24" s="88"/>
+      <c r="F24" s="87"/>
+      <c r="G24" s="112"/>
+      <c r="H24" s="90"/>
     </row>
     <row r="25" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="17">
@@ -1971,9 +1996,9 @@
       <c r="E25" s="29">
         <v>671700</v>
       </c>
-      <c r="F25" s="80"/>
-      <c r="G25" s="96"/>
-      <c r="H25" s="89"/>
+      <c r="F25" s="88"/>
+      <c r="G25" s="113"/>
+      <c r="H25" s="91"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="8">
@@ -1991,14 +2016,14 @@
       <c r="E26" s="48">
         <v>445200</v>
       </c>
-      <c r="F26" s="78">
+      <c r="F26" s="86">
         <f>E31+E30+E29+E28+E27+E26</f>
         <v>3139000</v>
       </c>
-      <c r="G26" s="97">
+      <c r="G26" s="114">
         <v>44652</v>
       </c>
-      <c r="H26" s="87" t="s">
+      <c r="H26" s="89" t="s">
         <v>57</v>
       </c>
     </row>
@@ -2018,9 +2043,9 @@
       <c r="E27" s="51">
         <v>574900</v>
       </c>
-      <c r="F27" s="79"/>
-      <c r="G27" s="98"/>
-      <c r="H27" s="88"/>
+      <c r="F27" s="87"/>
+      <c r="G27" s="115"/>
+      <c r="H27" s="90"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="11">
@@ -2038,9 +2063,9 @@
       <c r="E28" s="38">
         <v>502300</v>
       </c>
-      <c r="F28" s="79"/>
-      <c r="G28" s="98"/>
-      <c r="H28" s="88"/>
+      <c r="F28" s="87"/>
+      <c r="G28" s="115"/>
+      <c r="H28" s="90"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="10">
@@ -2058,9 +2083,9 @@
       <c r="E29" s="38">
         <v>605600</v>
       </c>
-      <c r="F29" s="79"/>
-      <c r="G29" s="98"/>
-      <c r="H29" s="88"/>
+      <c r="F29" s="87"/>
+      <c r="G29" s="115"/>
+      <c r="H29" s="90"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="11">
@@ -2078,15 +2103,15 @@
       <c r="E30" s="38">
         <v>264000</v>
       </c>
-      <c r="F30" s="79"/>
-      <c r="G30" s="98"/>
-      <c r="H30" s="88"/>
+      <c r="F30" s="87"/>
+      <c r="G30" s="115"/>
+      <c r="H30" s="90"/>
     </row>
     <row r="31" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="18">
         <v>29</v>
       </c>
-      <c r="B31" s="72" t="s">
+      <c r="B31" s="78" t="s">
         <v>8</v>
       </c>
       <c r="C31" s="52" t="s">
@@ -2098,9 +2123,9 @@
       <c r="E31" s="54">
         <v>747000</v>
       </c>
-      <c r="F31" s="79"/>
-      <c r="G31" s="98"/>
-      <c r="H31" s="89"/>
+      <c r="F31" s="87"/>
+      <c r="G31" s="115"/>
+      <c r="H31" s="91"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="8">
@@ -2118,14 +2143,14 @@
       <c r="E32" s="48">
         <v>577500</v>
       </c>
-      <c r="F32" s="78">
+      <c r="F32" s="86">
         <f>E39+E38+E37+E36+E35+E34+E33+E32</f>
         <v>3369400</v>
       </c>
-      <c r="G32" s="116">
+      <c r="G32" s="105">
         <v>44677</v>
       </c>
-      <c r="H32" s="87" t="s">
+      <c r="H32" s="89" t="s">
         <v>57</v>
       </c>
     </row>
@@ -2145,9 +2170,9 @@
       <c r="E33" s="51">
         <v>4800</v>
       </c>
-      <c r="F33" s="79"/>
-      <c r="G33" s="117"/>
-      <c r="H33" s="88"/>
+      <c r="F33" s="87"/>
+      <c r="G33" s="106"/>
+      <c r="H33" s="90"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="11">
@@ -2165,9 +2190,9 @@
       <c r="E34" s="38">
         <v>534300</v>
       </c>
-      <c r="F34" s="79"/>
-      <c r="G34" s="117"/>
-      <c r="H34" s="88"/>
+      <c r="F34" s="87"/>
+      <c r="G34" s="106"/>
+      <c r="H34" s="90"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="10">
@@ -2185,9 +2210,9 @@
       <c r="E35" s="38">
         <v>462400</v>
       </c>
-      <c r="F35" s="79"/>
-      <c r="G35" s="117"/>
-      <c r="H35" s="88"/>
+      <c r="F35" s="87"/>
+      <c r="G35" s="106"/>
+      <c r="H35" s="90"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="19">
@@ -2205,9 +2230,9 @@
       <c r="E36" s="38">
         <v>306600</v>
       </c>
-      <c r="F36" s="79"/>
-      <c r="G36" s="117"/>
-      <c r="H36" s="88"/>
+      <c r="F36" s="87"/>
+      <c r="G36" s="106"/>
+      <c r="H36" s="90"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="10">
@@ -2225,15 +2250,15 @@
       <c r="E37" s="38">
         <v>359000</v>
       </c>
-      <c r="F37" s="79"/>
-      <c r="G37" s="117"/>
-      <c r="H37" s="88"/>
+      <c r="F37" s="87"/>
+      <c r="G37" s="106"/>
+      <c r="H37" s="90"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="11">
         <v>36</v>
       </c>
-      <c r="B38" s="72" t="s">
+      <c r="B38" s="78" t="s">
         <v>8</v>
       </c>
       <c r="C38" s="55" t="s">
@@ -2245,9 +2270,9 @@
       <c r="E38" s="57">
         <v>467400</v>
       </c>
-      <c r="F38" s="79"/>
-      <c r="G38" s="117"/>
-      <c r="H38" s="88"/>
+      <c r="F38" s="87"/>
+      <c r="G38" s="106"/>
+      <c r="H38" s="90"/>
     </row>
     <row r="39" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="17">
@@ -2265,9 +2290,9 @@
       <c r="E39" s="60">
         <v>657400</v>
       </c>
-      <c r="F39" s="79"/>
-      <c r="G39" s="118"/>
-      <c r="H39" s="89"/>
+      <c r="F39" s="87"/>
+      <c r="G39" s="107"/>
+      <c r="H39" s="91"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="8">
@@ -2285,14 +2310,14 @@
       <c r="E40" s="64">
         <v>572400</v>
       </c>
-      <c r="F40" s="78">
+      <c r="F40" s="86">
         <f>E45+E44+E43+E42+E41+E40</f>
         <v>3335600</v>
       </c>
-      <c r="G40" s="119">
+      <c r="G40" s="108">
         <v>44694</v>
       </c>
-      <c r="H40" s="87" t="s">
+      <c r="H40" s="89" t="s">
         <v>57</v>
       </c>
     </row>
@@ -2300,7 +2325,7 @@
       <c r="A41" s="10">
         <v>39</v>
       </c>
-      <c r="B41" s="72" t="s">
+      <c r="B41" s="78" t="s">
         <v>8</v>
       </c>
       <c r="C41" s="65" t="s">
@@ -2312,15 +2337,15 @@
       <c r="E41" s="67">
         <v>433900</v>
       </c>
-      <c r="F41" s="79"/>
-      <c r="G41" s="120"/>
-      <c r="H41" s="88"/>
+      <c r="F41" s="87"/>
+      <c r="G41" s="109"/>
+      <c r="H41" s="90"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="11">
         <v>40</v>
       </c>
-      <c r="B42" s="72" t="s">
+      <c r="B42" s="78" t="s">
         <v>8</v>
       </c>
       <c r="C42" s="39" t="s">
@@ -2332,15 +2357,15 @@
       <c r="E42" s="38">
         <v>645500</v>
       </c>
-      <c r="F42" s="79"/>
-      <c r="G42" s="120"/>
-      <c r="H42" s="88"/>
+      <c r="F42" s="87"/>
+      <c r="G42" s="109"/>
+      <c r="H42" s="90"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="18">
         <v>41</v>
       </c>
-      <c r="B43" s="72" t="s">
+      <c r="B43" s="78" t="s">
         <v>8</v>
       </c>
       <c r="C43" s="52" t="s">
@@ -2352,15 +2377,15 @@
       <c r="E43" s="54">
         <v>597000</v>
       </c>
-      <c r="F43" s="79"/>
-      <c r="G43" s="120"/>
-      <c r="H43" s="88"/>
+      <c r="F43" s="87"/>
+      <c r="G43" s="109"/>
+      <c r="H43" s="90"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="11">
         <v>42</v>
       </c>
-      <c r="B44" s="72" t="s">
+      <c r="B44" s="78" t="s">
         <v>8</v>
       </c>
       <c r="C44" s="65" t="s">
@@ -2372,9 +2397,9 @@
       <c r="E44" s="67">
         <v>634900</v>
       </c>
-      <c r="F44" s="79"/>
-      <c r="G44" s="120"/>
-      <c r="H44" s="88"/>
+      <c r="F44" s="87"/>
+      <c r="G44" s="109"/>
+      <c r="H44" s="90"/>
     </row>
     <row r="45" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="17">
@@ -2392,9 +2417,9 @@
       <c r="E45" s="60">
         <v>451900</v>
       </c>
-      <c r="F45" s="80"/>
-      <c r="G45" s="121"/>
-      <c r="H45" s="89"/>
+      <c r="F45" s="88"/>
+      <c r="G45" s="110"/>
+      <c r="H45" s="91"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="8">
@@ -2412,14 +2437,14 @@
       <c r="E46" s="45">
         <v>652800</v>
       </c>
-      <c r="F46" s="78">
+      <c r="F46" s="86">
         <f>E46+E47+E48+E49+E50+E51+E52</f>
         <v>3918500</v>
       </c>
-      <c r="G46" s="81">
+      <c r="G46" s="80">
         <v>44719</v>
       </c>
-      <c r="H46" s="84" t="s">
+      <c r="H46" s="83" t="s">
         <v>58</v>
       </c>
     </row>
@@ -2427,7 +2452,7 @@
       <c r="A47" s="18">
         <v>45</v>
       </c>
-      <c r="B47" s="72" t="s">
+      <c r="B47" s="78" t="s">
         <v>8</v>
       </c>
       <c r="C47" s="65" t="s">
@@ -2439,15 +2464,15 @@
       <c r="E47" s="67">
         <v>470500</v>
       </c>
-      <c r="F47" s="79"/>
-      <c r="G47" s="82"/>
-      <c r="H47" s="85"/>
+      <c r="F47" s="87"/>
+      <c r="G47" s="81"/>
+      <c r="H47" s="84"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="68">
         <v>46</v>
       </c>
-      <c r="B48" s="72" t="s">
+      <c r="B48" s="78" t="s">
         <v>8</v>
       </c>
       <c r="C48" s="55" t="s">
@@ -2459,15 +2484,15 @@
       <c r="E48" s="57">
         <v>524300</v>
       </c>
-      <c r="F48" s="79"/>
-      <c r="G48" s="82"/>
-      <c r="H48" s="85"/>
+      <c r="F48" s="87"/>
+      <c r="G48" s="81"/>
+      <c r="H48" s="84"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="11">
         <v>47</v>
       </c>
-      <c r="B49" s="72" t="s">
+      <c r="B49" s="78" t="s">
         <v>8</v>
       </c>
       <c r="C49" s="65" t="s">
@@ -2479,15 +2504,15 @@
       <c r="E49" s="67">
         <v>441000</v>
       </c>
-      <c r="F49" s="79"/>
-      <c r="G49" s="82"/>
-      <c r="H49" s="85"/>
+      <c r="F49" s="87"/>
+      <c r="G49" s="81"/>
+      <c r="H49" s="84"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="18">
         <v>48</v>
       </c>
-      <c r="B50" s="72" t="s">
+      <c r="B50" s="78" t="s">
         <v>8</v>
       </c>
       <c r="C50" s="39" t="s">
@@ -2499,15 +2524,15 @@
       <c r="E50" s="38">
         <v>686100</v>
       </c>
-      <c r="F50" s="79"/>
-      <c r="G50" s="82"/>
-      <c r="H50" s="85"/>
+      <c r="F50" s="87"/>
+      <c r="G50" s="81"/>
+      <c r="H50" s="84"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="68">
         <v>49</v>
       </c>
-      <c r="B51" s="72" t="s">
+      <c r="B51" s="78" t="s">
         <v>8</v>
       </c>
       <c r="C51" s="65" t="s">
@@ -2519,9 +2544,9 @@
       <c r="E51" s="67">
         <v>492600</v>
       </c>
-      <c r="F51" s="79"/>
-      <c r="G51" s="82"/>
-      <c r="H51" s="85"/>
+      <c r="F51" s="87"/>
+      <c r="G51" s="81"/>
+      <c r="H51" s="84"/>
     </row>
     <row r="52" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="12">
@@ -2539,9 +2564,9 @@
       <c r="E52" s="60">
         <v>651200</v>
       </c>
-      <c r="F52" s="80"/>
-      <c r="G52" s="83"/>
-      <c r="H52" s="86"/>
+      <c r="F52" s="88"/>
+      <c r="G52" s="82"/>
+      <c r="H52" s="85"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="14">
@@ -2559,14 +2584,18 @@
       <c r="E53" s="64">
         <v>726600</v>
       </c>
-      <c r="F53" s="78">
-        <v>4519300</v>
-      </c>
-      <c r="G53" s="81"/>
-      <c r="H53" s="84"/>
+      <c r="F53" s="86">
+        <v>4998600</v>
+      </c>
+      <c r="G53" s="80">
+        <v>44747</v>
+      </c>
+      <c r="H53" s="83" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="76">
+      <c r="A54" s="74">
         <v>52</v>
       </c>
       <c r="B54" s="1" t="s">
@@ -2581,15 +2610,15 @@
       <c r="E54" s="67">
         <v>716000</v>
       </c>
-      <c r="F54" s="79"/>
-      <c r="G54" s="82"/>
-      <c r="H54" s="85"/>
+      <c r="F54" s="87"/>
+      <c r="G54" s="81"/>
+      <c r="H54" s="84"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="76">
+      <c r="A55" s="74">
         <v>53</v>
       </c>
-      <c r="B55" s="72" t="s">
+      <c r="B55" s="78" t="s">
         <v>8</v>
       </c>
       <c r="C55" s="65" t="s">
@@ -2601,12 +2630,12 @@
       <c r="E55" s="67">
         <v>1032900</v>
       </c>
-      <c r="F55" s="79"/>
-      <c r="G55" s="82"/>
-      <c r="H55" s="85"/>
+      <c r="F55" s="87"/>
+      <c r="G55" s="81"/>
+      <c r="H55" s="84"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="76">
+      <c r="A56" s="74">
         <v>54</v>
       </c>
       <c r="B56" s="1" t="s">
@@ -2621,15 +2650,15 @@
       <c r="E56" s="67">
         <v>946100</v>
       </c>
-      <c r="F56" s="79"/>
-      <c r="G56" s="82"/>
-      <c r="H56" s="85"/>
+      <c r="F56" s="87"/>
+      <c r="G56" s="81"/>
+      <c r="H56" s="84"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="10">
         <v>55</v>
       </c>
-      <c r="B57" s="122" t="s">
+      <c r="B57" s="76" t="s">
         <v>8</v>
       </c>
       <c r="C57" s="65" t="s">
@@ -2641,42 +2670,208 @@
       <c r="E57" s="67">
         <v>545600</v>
       </c>
-      <c r="F57" s="79"/>
-      <c r="G57" s="82"/>
-      <c r="H57" s="85"/>
-    </row>
-    <row r="58" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="77">
+      <c r="F57" s="87"/>
+      <c r="G57" s="81"/>
+      <c r="H57" s="84"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" s="74">
         <v>56</v>
       </c>
-      <c r="B58" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C58" s="40" t="s">
+      <c r="B58" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C58" s="39" t="s">
         <v>67</v>
       </c>
-      <c r="D58" s="41">
+      <c r="D58" s="37">
         <v>44743</v>
       </c>
-      <c r="E58" s="42">
+      <c r="E58" s="38">
         <v>552100</v>
       </c>
-      <c r="F58" s="80"/>
-      <c r="G58" s="83"/>
-      <c r="H58" s="86"/>
+      <c r="F58" s="87"/>
+      <c r="G58" s="81"/>
+      <c r="H58" s="84"/>
+    </row>
+    <row r="59" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="75">
+        <v>57</v>
+      </c>
+      <c r="B59" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C59" s="58" t="s">
+        <v>68</v>
+      </c>
+      <c r="D59" s="59">
+        <v>44746</v>
+      </c>
+      <c r="E59" s="60">
+        <v>479300</v>
+      </c>
+      <c r="F59" s="88"/>
+      <c r="G59" s="82"/>
+      <c r="H59" s="85"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" s="14">
+        <v>58</v>
+      </c>
+      <c r="B60" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C60" s="62" t="s">
+        <v>69</v>
+      </c>
+      <c r="D60" s="63">
+        <v>44749</v>
+      </c>
+      <c r="E60" s="64">
+        <v>524600</v>
+      </c>
+      <c r="F60" s="86">
+        <f>E60+E61+E62</f>
+        <v>1517300</v>
+      </c>
+      <c r="G60" s="80">
+        <v>44770</v>
+      </c>
+      <c r="H60" s="83"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" s="10">
+        <v>59</v>
+      </c>
+      <c r="B61" s="76" t="s">
+        <v>8</v>
+      </c>
+      <c r="C61" s="65" t="s">
+        <v>70</v>
+      </c>
+      <c r="D61" s="79">
+        <v>44753</v>
+      </c>
+      <c r="E61" s="67">
+        <v>589300</v>
+      </c>
+      <c r="F61" s="87"/>
+      <c r="G61" s="81"/>
+      <c r="H61" s="84"/>
+    </row>
+    <row r="62" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="75">
+        <v>60</v>
+      </c>
+      <c r="B62" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C62" s="58" t="s">
+        <v>71</v>
+      </c>
+      <c r="D62" s="59">
+        <v>44756</v>
+      </c>
+      <c r="E62" s="60">
+        <v>403400</v>
+      </c>
+      <c r="F62" s="88"/>
+      <c r="G62" s="82"/>
+      <c r="H62" s="85"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" s="14">
+        <v>61</v>
+      </c>
+      <c r="B63" s="61" t="s">
+        <v>8</v>
+      </c>
+      <c r="C63" s="62" t="s">
+        <v>72</v>
+      </c>
+      <c r="D63" s="63">
+        <v>44760</v>
+      </c>
+      <c r="E63" s="64">
+        <v>762100</v>
+      </c>
+      <c r="F63" s="86">
+        <f>E63+E64+E65+E66</f>
+        <v>2721100</v>
+      </c>
+      <c r="G63" s="80"/>
+      <c r="H63" s="83"/>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" s="74">
+        <v>62</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C64" s="65" t="s">
+        <v>73</v>
+      </c>
+      <c r="D64" s="66">
+        <v>44763</v>
+      </c>
+      <c r="E64" s="67">
+        <v>747300</v>
+      </c>
+      <c r="F64" s="87"/>
+      <c r="G64" s="81"/>
+      <c r="H64" s="84"/>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" s="10">
+        <v>63</v>
+      </c>
+      <c r="B65" s="76" t="s">
+        <v>8</v>
+      </c>
+      <c r="C65" s="65" t="s">
+        <v>74</v>
+      </c>
+      <c r="D65" s="66">
+        <v>44767</v>
+      </c>
+      <c r="E65" s="67">
+        <v>655400</v>
+      </c>
+      <c r="F65" s="87"/>
+      <c r="G65" s="81"/>
+      <c r="H65" s="84"/>
+    </row>
+    <row r="66" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="75">
+        <v>64</v>
+      </c>
+      <c r="B66" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C66" s="58" t="s">
+        <v>75</v>
+      </c>
+      <c r="D66" s="59">
+        <v>44770</v>
+      </c>
+      <c r="E66" s="60">
+        <v>556300</v>
+      </c>
+      <c r="F66" s="88"/>
+      <c r="G66" s="82"/>
+      <c r="H66" s="85"/>
     </row>
   </sheetData>
-  <mergeCells count="34">
+  <mergeCells count="40">
+    <mergeCell ref="F63:F66"/>
+    <mergeCell ref="G63:G66"/>
+    <mergeCell ref="H63:H66"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="F32:F39"/>
     <mergeCell ref="G32:G39"/>
     <mergeCell ref="F40:F45"/>
     <mergeCell ref="G40:G45"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
     <mergeCell ref="F19:F25"/>
     <mergeCell ref="G19:G25"/>
     <mergeCell ref="F26:F31"/>
@@ -2687,6 +2882,11 @@
     <mergeCell ref="G11:G12"/>
     <mergeCell ref="F13:F18"/>
     <mergeCell ref="G13:G18"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="H4:H10"/>
     <mergeCell ref="H11:H12"/>
@@ -2698,9 +2898,12 @@
     <mergeCell ref="F46:F52"/>
     <mergeCell ref="G46:G52"/>
     <mergeCell ref="H46:H52"/>
-    <mergeCell ref="F53:F58"/>
-    <mergeCell ref="G53:G58"/>
-    <mergeCell ref="H53:H58"/>
+    <mergeCell ref="F60:F62"/>
+    <mergeCell ref="G60:G62"/>
+    <mergeCell ref="H60:H62"/>
+    <mergeCell ref="F53:F59"/>
+    <mergeCell ref="G53:G59"/>
+    <mergeCell ref="H53:H59"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
